--- a/Excel/Datas/__enums__.xlsx
+++ b/Excel/Datas/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5694CD2-789E-4C15-B008-41819FC357E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D457B671-5235-458D-AB94-A68FA8E8F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -76,65 +76,39 @@
     <t>注释</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>最高品质</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>黑</t>
-  </si>
-  <si>
-    <t>黑色的</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>蓝色的</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>最差品质</t>
-  </si>
-  <si>
-    <t>WRITE</t>
-  </si>
-  <si>
-    <t>READ</t>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>READ_WRITE</t>
-  </si>
-  <si>
-    <t>WRITE|READ</t>
-  </si>
-  <si>
-    <t>ETestQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccessFlag</t>
+    <t>UnitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,11 +166,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,17 +447,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
@@ -509,13 +483,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -564,8 +538,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>36</v>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -573,108 +547,58 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>37</v>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>30</v>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>31</v>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
